--- a/lcad-evaluation/assets/data/LCA/Design B/Process Contribution B - Amount.XLSX
+++ b/lcad-evaluation/assets/data/LCA/Design B/Process Contribution B - Amount.XLSX
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="XLSReadWriteII" lastEdited="4" lowestEdited="4" rupBuild="4.00.38"/>
   <sheets>
-    <sheet name="Sheet6" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -48,9 +48,6 @@
     <t>Sort order: </t>
   </si>
   <si>
-    <t>Induction Hardening Bearing Surface 1</t>
-  </si>
-  <si>
     <t>Analyze</t>
   </si>
   <si>
@@ -94,6 +91,9 @@
   </si>
   <si>
     <t>kg</t>
+  </si>
+  <si>
+    <t>Induction Hardening Bearing Surfaces 1, 2</t>
   </si>
   <si>
     <t>Total</t>
@@ -521,24 +521,24 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
         <v>39</v>
       </c>
       <c r="D1" s="1">
-        <v>45571</v>
+        <v>45572</v>
       </c>
       <c r="E1" t="s">
         <v>9</v>
       </c>
       <c r="F1" s="2">
-        <v>0.582682465277778</v>
+        <v>0.808196076388889</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
         <v>42</v>
@@ -549,15 +549,15 @@
         <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
@@ -565,7 +565,7 @@
         <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
@@ -581,12 +581,12 @@
         <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -632,28 +632,28 @@
         <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16" t="s">
         <v>28</v>
       </c>
       <c r="F16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I16" t="s">
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K16" t="s">
         <v>37</v>
@@ -686,13 +686,13 @@
         <v>36</v>
       </c>
       <c r="U16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="V16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="W16" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
@@ -706,7 +706,7 @@
         <v>42</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E17">
         <v>91.3213500000506</v>
@@ -771,7 +771,7 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
         <v>42</v>
@@ -842,7 +842,7 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
         <v>42</v>
@@ -851,7 +851,7 @@
         <v>33</v>
       </c>
       <c r="E19">
-        <v>540</v>
+        <v>252</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="W19">
-        <v>540</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20">
@@ -919,7 +919,7 @@
         <v>42</v>
       </c>
       <c r="D20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E20">
         <v>33.8586500000188</v>
@@ -984,13 +984,13 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
         <v>42</v>
       </c>
       <c r="D21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E21">
         <v>13.5900144</v>
@@ -1055,7 +1055,7 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
         <v>42</v>
@@ -1132,7 +1132,7 @@
         <v>42</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E23">
         <v>705.974770000391</v>
@@ -1203,7 +1203,7 @@
         <v>42</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E24">
         <v>2.45272298</v>
@@ -1274,7 +1274,7 @@
         <v>42</v>
       </c>
       <c r="D25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E25">
         <v>2.85231000000158</v>
@@ -1339,13 +1339,13 @@
         <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s">
         <v>42</v>
       </c>
       <c r="D26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E26">
         <v>48.4274600000268</v>
@@ -1416,7 +1416,7 @@
         <v>42</v>
       </c>
       <c r="D27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E27">
         <v>3.15823000000175</v>
@@ -1552,13 +1552,13 @@
         <v>13</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C29" t="s">
         <v>42</v>
       </c>
       <c r="D29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E29">
         <v>219.859630000122</v>
@@ -1629,7 +1629,7 @@
         <v>42</v>
       </c>
       <c r="D30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E30">
         <v>4.82980702</v>
@@ -1700,7 +1700,7 @@
         <v>42</v>
       </c>
       <c r="D31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E31">
         <v>790.991770000438</v>
@@ -1771,7 +1771,7 @@
         <v>42</v>
       </c>
       <c r="D32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E32">
         <v>46.5139500000258</v>
@@ -1842,7 +1842,7 @@
         <v>42</v>
       </c>
       <c r="D33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E33">
         <v>100.906050000056</v>
@@ -1913,7 +1913,7 @@
         <v>42</v>
       </c>
       <c r="D34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E34">
         <v>784.417690000435</v>

--- a/lcad-evaluation/assets/data/LCA/Design B/Process Contribution B - Amount.XLSX
+++ b/lcad-evaluation/assets/data/LCA/Design B/Process Contribution B - Amount.XLSX
@@ -3,37 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="XLSReadWriteII" lastEdited="4" lowestEdited="4" rupBuild="4.00.38"/>
   <sheets>
-    <sheet name="Sheet3" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet6" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="47">
-  <si>
-    <t>Turning Fillets 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11</t>
-  </si>
-  <si>
-    <t>mg</t>
-  </si>
-  <si>
-    <t>Turning Surface 1</t>
-  </si>
-  <si>
-    <t>Turning Surface 7</t>
-  </si>
-  <si>
-    <t>Turning Top Hole</t>
-  </si>
-  <si>
-    <t>Turning Groove 2</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="46">
+  <si>
+    <t>Turning 11</t>
+  </si>
+  <si>
+    <t>Milling</t>
   </si>
   <si>
     <t>SimaPro 8.5.2.0</t>
   </si>
   <si>
-    <t>Turning Surface 4, Face 4, Bearing Surface 1</t>
+    <t>Turning 13b</t>
   </si>
   <si>
     <t>No</t>
@@ -45,6 +33,9 @@
     <t>Exclude infrastructure processes: </t>
   </si>
   <si>
+    <t>Turning 4</t>
+  </si>
+  <si>
     <t>Sort order: </t>
   </si>
   <si>
@@ -54,24 +45,30 @@
     <t>Process contribution</t>
   </si>
   <si>
+    <t>Turning 8</t>
+  </si>
+  <si>
+    <t>Turning 6</t>
+  </si>
+  <si>
     <t>Inventory</t>
   </si>
   <si>
-    <t>Grinding Bearing Surfaces 1, 2</t>
-  </si>
-  <si>
     <t>1 p Screw Pump Shaft - Design B (of project Screw Pump Shaft)</t>
   </si>
   <si>
+    <t>Turning 2</t>
+  </si>
+  <si>
     <t>Results: </t>
   </si>
   <si>
-    <t>g</t>
-  </si>
-  <si>
     <t>Project</t>
   </si>
   <si>
+    <t>Turning 10</t>
+  </si>
+  <si>
     <t>Default units: </t>
   </si>
   <si>
@@ -81,19 +78,16 @@
     <t>Unit</t>
   </si>
   <si>
-    <t>Turning Groove 1</t>
-  </si>
-  <si>
-    <t>Turning Surface 2, Face 2</t>
-  </si>
-  <si>
-    <t>Turning Chamfer 6</t>
+    <t>Induction Hardening</t>
   </si>
   <si>
     <t>kg</t>
   </si>
   <si>
-    <t>Induction Hardening Bearing Surfaces 1, 2</t>
+    <t>Turning 14</t>
+  </si>
+  <si>
+    <t>Drilling</t>
   </si>
   <si>
     <t>Total</t>
@@ -102,7 +96,7 @@
     <t>Method: </t>
   </si>
   <si>
-    <t>Turning Surface 6</t>
+    <t>Yes</t>
   </si>
   <si>
     <t>Exclude long-term emissions: </t>
@@ -114,43 +108,46 @@
     <t>MJ</t>
   </si>
   <si>
-    <t>Turning Surface 5, Face 5, Bearing Surface 2</t>
+    <t>Turning 1</t>
   </si>
   <si>
     <t>ReCiPe 2016 Midpoint (H) V1.00</t>
   </si>
   <si>
-    <t>Milling Keyway</t>
-  </si>
-  <si>
-    <t>Turning Face 3</t>
-  </si>
-  <si>
     <t>Indicator: </t>
   </si>
   <si>
     <t>Date:</t>
   </si>
   <si>
+    <t>Surface Grinding</t>
+  </si>
+  <si>
+    <t>Turning 5</t>
+  </si>
+  <si>
     <t>Product: </t>
   </si>
   <si>
     <t>Calculation: </t>
   </si>
   <si>
+    <t>Turning 3</t>
+  </si>
+  <si>
     <t>Screw Pump Shaft</t>
   </si>
   <si>
-    <t>Drilling Bushing Holes</t>
-  </si>
-  <si>
     <t>Ascending</t>
   </si>
   <si>
+    <t>Turning 7</t>
+  </si>
+  <si>
+    <t>Turning 9</t>
+  </si>
+  <si>
     <t>Process</t>
-  </si>
-  <si>
-    <t>Turning Face 1</t>
   </si>
 </sst>
 </file>
@@ -518,99 +515,99 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1">
-        <v>45572</v>
+        <v>45574</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F1" s="2">
-        <v>0.808196076388889</v>
+        <v>0.880662708333333</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
         <v>45</v>
@@ -618,81 +615,81 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
         <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H16" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="J16" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="K16" t="s">
         <v>37</v>
       </c>
       <c r="L16" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="M16" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="N16" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="O16" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="P16" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>0</v>
+      </c>
+      <c r="R16" t="s">
         <v>3</v>
       </c>
-      <c r="Q16" t="s">
-        <v>4</v>
-      </c>
-      <c r="R16" t="s">
-        <v>0</v>
-      </c>
       <c r="S16" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="T16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U16" t="s">
+        <v>24</v>
+      </c>
+      <c r="V16" t="s">
         <v>36</v>
       </c>
-      <c r="U16" t="s">
-        <v>25</v>
-      </c>
-      <c r="V16" t="s">
-        <v>15</v>
-      </c>
       <c r="W16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17">
@@ -700,16 +697,16 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>91.3213500000506</v>
+        <v>0.09132135</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -751,7 +748,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>91.3213500000506</v>
+        <v>0.09132135</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -771,16 +768,16 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="E18">
-        <v>700.808000000515</v>
+        <v>252</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -831,10 +828,10 @@
         <v>0</v>
       </c>
       <c r="V18">
-        <v>700.808000000515</v>
+        <v>0</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19">
@@ -842,16 +839,16 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E19">
-        <v>252</v>
+        <v>0.03385865</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -896,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>0.03385865</v>
       </c>
       <c r="U19">
         <v>0</v>
@@ -905,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="W19">
-        <v>252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -913,19 +910,19 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>33.8586500000188</v>
+        <v>13.5900144</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>13.5900144</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -967,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="T20">
-        <v>33.8586500000188</v>
+        <v>0</v>
       </c>
       <c r="U20">
         <v>0</v>
@@ -984,19 +981,19 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E21">
-        <v>13.5900144</v>
+        <v>0.000700808</v>
       </c>
       <c r="F21">
-        <v>13.5900144</v>
+        <v>0</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1044,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>0.000700808</v>
       </c>
       <c r="W21">
         <v>0</v>
@@ -1055,22 +1052,22 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="E22">
-        <v>428.620000000315</v>
+        <v>0.70597477</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.70597477</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1112,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="U22">
-        <v>428.620000000315</v>
+        <v>0</v>
       </c>
       <c r="V22">
         <v>0</v>
@@ -1126,22 +1123,22 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D23" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>705.974770000391</v>
+        <v>0.10090605</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>705.974770000391</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1168,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.10090605</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -1197,16 +1194,16 @@
         <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>2.45272298</v>
+        <v>0.78441769</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1224,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.45272298</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1242,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>0.78441769</v>
       </c>
       <c r="R24">
         <v>0</v>
@@ -1268,16 +1265,16 @@
         <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D25" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E25">
-        <v>2.85231000000158</v>
+        <v>0.00285231</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1316,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="R25">
-        <v>2.85231000000158</v>
+        <v>0.00285231</v>
       </c>
       <c r="S25">
         <v>0</v>
@@ -1339,16 +1336,16 @@
         <v>10</v>
       </c>
       <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" t="s">
         <v>23</v>
       </c>
-      <c r="C26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" t="s">
-        <v>18</v>
-      </c>
       <c r="E26">
-        <v>48.4274600000268</v>
+        <v>0.00042862</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1363,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>48.4274600000268</v>
+        <v>0</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -1396,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>0.00042862</v>
       </c>
       <c r="V26">
         <v>0</v>
@@ -1410,16 +1407,16 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D27" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E27">
-        <v>3.15823000000175</v>
+        <v>0.21985963</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1428,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>0.21985963</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -1443,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>3.15823000000175</v>
+        <v>0</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -1481,16 +1478,16 @@
         <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D28" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="E28">
-        <v>422.54000000031</v>
+        <v>0.00042254</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1502,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <v>422.54000000031</v>
+        <v>0.00042254</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -1552,16 +1549,16 @@
         <v>13</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D29" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>219.859630000122</v>
+        <v>0.04842746</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1570,13 +1567,13 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>219.859630000122</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>0.04842746</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -1623,16 +1620,16 @@
         <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D30" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E30">
-        <v>4.82980702</v>
+        <v>2.45272298</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1650,10 +1647,10 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>2.45272298</v>
       </c>
       <c r="L30">
-        <v>4.82980702</v>
+        <v>0</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -1694,16 +1691,16 @@
         <v>15</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D31" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E31">
-        <v>790.991770000438</v>
+        <v>4.82980702</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -1724,13 +1721,13 @@
         <v>0</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>4.82980702</v>
       </c>
       <c r="M31">
         <v>0</v>
       </c>
       <c r="N31">
-        <v>790.991770000438</v>
+        <v>0</v>
       </c>
       <c r="O31">
         <v>0</v>
@@ -1765,16 +1762,16 @@
         <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D32" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E32">
-        <v>46.5139500000258</v>
+        <v>0.00315823</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -1798,13 +1795,13 @@
         <v>0</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>0.00315823</v>
       </c>
       <c r="N32">
         <v>0</v>
       </c>
       <c r="O32">
-        <v>46.5139500000258</v>
+        <v>0</v>
       </c>
       <c r="P32">
         <v>0</v>
@@ -1836,16 +1833,16 @@
         <v>17</v>
       </c>
       <c r="B33" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D33" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E33">
-        <v>100.906050000056</v>
+        <v>0.79099177</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -1872,13 +1869,13 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>0.79099177</v>
       </c>
       <c r="O33">
         <v>0</v>
       </c>
       <c r="P33">
-        <v>100.906050000056</v>
+        <v>0</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -1907,16 +1904,16 @@
         <v>18</v>
       </c>
       <c r="B34" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="C34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D34" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E34">
-        <v>784.417690000435</v>
+        <v>0.04651395</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -1946,13 +1943,13 @@
         <v>0</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>0.04651395</v>
       </c>
       <c r="P34">
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>784.417690000435</v>
+        <v>0</v>
       </c>
       <c r="R34">
         <v>0</v>
